--- a/設計書/サンプルプロジェクトのセキュリティ対応表.xlsx
+++ b/設計書/サンプルプロジェクトのセキュリティ対応表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EAEEB8-BEB0-4C15-831E-24332D9B585E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40AE377-2FA4-4836-926A-6068C95B5065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="225">
   <si>
     <t>□</t>
     <phoneticPr fontId="2"/>
@@ -1638,19 +1638,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力値の内容チェックはBean Validationで行います。</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロジェクトで入力されたHTMLテキストをパースして危険な要素を取り除くなど、対応を行ってください。</t>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
@@ -1721,23 +1708,6 @@
     </rPh>
     <rPh sb="96" eb="98">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Spring Securityによっていくつかのレスポンスヘッダが追加されます。詳細は公式ドキュメントを参照してください。
-https://docs.spring.io/spring-security/reference/5.7/servlet/exploits/headers.html</t>
-    <rPh sb="33" eb="35">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウシキ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2026,6 +1996,62 @@
     </rPh>
     <rPh sb="97" eb="98">
       <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値の内容チェックはJakarta Bean Validationで行います。</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Spring Securityによっていくつかのレスポンスヘッダが追加されます。詳細は公式ドキュメントを参照してください。
+https://docs.spring.io/spring-security/reference/6.2/servlet/exploits/headers.html</t>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2.チェックリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bean Validationの名称をJakarta Bean Validationへ変更
+Spring Securityのバージョンアップに伴いリファレンスへのリンクを修正</t>
+    <rPh sb="16" eb="18">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2750,158 +2776,158 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3887,7 +3913,7 @@
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -4665,14 +4691,28 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="57" customFormat="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+    <row r="6" spans="1:9" s="57" customFormat="1" ht="28.5">
+      <c r="A6" s="52">
+        <v>2</v>
+      </c>
+      <c r="B6" s="56">
+        <v>45273</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="57" customFormat="1">
       <c r="A7" s="52"/>
@@ -4724,7 +4764,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
@@ -4743,7 +4783,7 @@
     </row>
     <row r="6" spans="2:4">
       <c r="D6" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -4758,12 +4798,12 @@
     </row>
     <row r="9" spans="2:4">
       <c r="D9" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -4854,7 +4894,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight"/>
@@ -4912,31 +4952,31 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="110" t="s">
+      <c r="D7" s="89"/>
+      <c r="E7" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="107" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="78" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" thickBot="1">
-      <c r="B8" s="95"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="30" t="s">
         <v>2</v>
       </c>
@@ -4950,21 +4990,21 @@
       <c r="I8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="116"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11" ht="57" customHeight="1">
-      <c r="B9" s="86">
+      <c r="B9" s="91">
         <v>1</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="80" t="s">
+      <c r="D9" s="102"/>
+      <c r="E9" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="111" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="23" t="s">
@@ -4979,16 +5019,16 @@
       <c r="J9" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="70" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57" customHeight="1">
-      <c r="B10" s="89"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="76"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="21" t="s">
         <v>16</v>
       </c>
@@ -5004,9 +5044,9 @@
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:11" ht="57" customHeight="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="20" t="s">
         <v>9</v>
       </c>
@@ -5023,12 +5063,12 @@
       <c r="J11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="73"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="36">
-      <c r="B12" s="89"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
@@ -5050,9 +5090,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="36.75" thickBot="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
       <c r="E13" s="27" t="s">
         <v>3</v>
       </c>
@@ -5074,13 +5114,13 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="36">
-      <c r="B14" s="86">
+      <c r="B14" s="91">
         <v>2</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="77"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="31" t="s">
         <v>9</v>
       </c>
@@ -5099,14 +5139,14 @@
       <c r="J14" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="83" t="s">
-        <v>219</v>
+      <c r="K14" s="80" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36.75" thickBot="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="34" t="s">
         <v>3</v>
       </c>
@@ -5125,86 +5165,86 @@
       <c r="J15" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="85"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1">
-      <c r="B16" s="86">
+      <c r="B16" s="91">
         <v>3</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="102" t="s">
+      <c r="D16" s="102"/>
+      <c r="E16" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="99" t="s">
+      <c r="F16" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="113" t="s">
+      <c r="H16" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="119" t="s">
+      <c r="J16" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="80" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="27" customHeight="1">
-      <c r="B17" s="98"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="117"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" ht="27" customHeight="1">
-      <c r="B18" s="89"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="106" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H18" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="118" t="s">
+      <c r="J18" s="84" t="s">
         <v>146</v>
       </c>
       <c r="K18" s="82"/>
     </row>
     <row r="19" spans="2:11" ht="27" customHeight="1">
-      <c r="B19" s="89"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="118"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="84"/>
       <c r="K19" s="82"/>
     </row>
     <row r="20" spans="2:11" ht="36">
-      <c r="B20" s="89"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="7" t="s">
         <v>3</v>
       </c>
@@ -5224,9 +5264,9 @@
       <c r="K20" s="82"/>
     </row>
     <row r="21" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B21" s="87"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="27" t="s">
         <v>3</v>
       </c>
@@ -5243,16 +5283,16 @@
       <c r="J21" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
     </row>
     <row r="22" spans="2:11" ht="36" customHeight="1">
-      <c r="B22" s="86">
+      <c r="B22" s="91">
         <v>4</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="31" t="s">
         <v>10</v>
       </c>
@@ -5274,9 +5314,9 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="36">
-      <c r="B23" s="89"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="20" t="s">
         <v>9</v>
       </c>
@@ -5298,9 +5338,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="36">
-      <c r="B24" s="89"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="20" t="s">
         <v>9</v>
       </c>
@@ -5318,17 +5358,17 @@
         <v>127</v>
       </c>
       <c r="K24" s="65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="89"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="81" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="112" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -5343,16 +5383,16 @@
       <c r="J25" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="K25" s="118" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="24">
-      <c r="B26" s="89"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="76"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="21" t="s">
         <v>16</v>
       </c>
@@ -5368,9 +5408,9 @@
       <c r="K26" s="71"/>
     </row>
     <row r="27" spans="2:11" ht="36">
-      <c r="B27" s="89"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="7" t="s">
         <v>3</v>
       </c>
@@ -5390,9 +5430,9 @@
       <c r="K27" s="71"/>
     </row>
     <row r="28" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B28" s="87"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
       <c r="E28" s="27" t="s">
         <v>3</v>
       </c>
@@ -5409,16 +5449,16 @@
       <c r="J28" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="K28" s="72"/>
+      <c r="K28" s="119"/>
     </row>
     <row r="29" spans="2:11" ht="36">
-      <c r="B29" s="86">
+      <c r="B29" s="91">
         <v>5</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="102" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="31" t="s">
@@ -5442,9 +5482,9 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="36">
-      <c r="B30" s="89"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="78"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="104"/>
       <c r="E30" s="20" t="s">
         <v>9</v>
       </c>
@@ -5466,9 +5506,9 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="36">
-      <c r="B31" s="89"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="78"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="104"/>
       <c r="E31" s="20" t="s">
         <v>9</v>
       </c>
@@ -5485,14 +5525,14 @@
       <c r="J31" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K31" s="70" t="s">
-        <v>204</v>
+      <c r="K31" s="118" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="36">
-      <c r="B32" s="89"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="78"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="104"/>
       <c r="E32" s="20" t="s">
         <v>9</v>
       </c>
@@ -5509,12 +5549,12 @@
       <c r="J32" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="73"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" ht="36">
-      <c r="B33" s="89"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="78"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="104"/>
       <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
@@ -5532,13 +5572,13 @@
         <v>127</v>
       </c>
       <c r="K33" s="65" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="36">
-      <c r="B34" s="89"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="78" t="s">
+      <c r="B34" s="93"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="104" t="s">
         <v>124</v>
       </c>
       <c r="E34" s="20" t="s">
@@ -5558,13 +5598,13 @@
         <v>145</v>
       </c>
       <c r="K34" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="36">
-      <c r="B35" s="89"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="78"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="7" t="s">
         <v>3</v>
       </c>
@@ -5584,9 +5624,9 @@
       <c r="K35" s="82"/>
     </row>
     <row r="36" spans="2:11" ht="36" customHeight="1">
-      <c r="B36" s="89"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="78" t="s">
+      <c r="B36" s="93"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="104" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="20" t="s">
@@ -5606,13 +5646,13 @@
         <v>140</v>
       </c>
       <c r="K36" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="36">
-      <c r="B37" s="89"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="78"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="7" t="s">
         <v>3</v>
       </c>
@@ -5630,13 +5670,13 @@
         <v>140</v>
       </c>
       <c r="K37" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B38" s="87"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="27" t="s">
         <v>3</v>
       </c>
@@ -5654,21 +5694,21 @@
         <v>127</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="48">
-      <c r="B39" s="86">
+      <c r="B39" s="91">
         <v>6</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="77"/>
-      <c r="E39" s="80" t="s">
+      <c r="D39" s="102"/>
+      <c r="E39" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="111" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="23" t="s">
@@ -5683,16 +5723,16 @@
       <c r="J39" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K39" s="83" t="s">
-        <v>208</v>
+      <c r="K39" s="80" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="36">
-      <c r="B40" s="89"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="76"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="21" t="s">
         <v>16</v>
       </c>
@@ -5708,11 +5748,11 @@
       <c r="K40" s="82"/>
     </row>
     <row r="41" spans="2:11" ht="24">
-      <c r="B41" s="89"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="76"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="112"/>
       <c r="G41" s="21" t="s">
         <v>16</v>
       </c>
@@ -5728,9 +5768,9 @@
       <c r="K41" s="82"/>
     </row>
     <row r="42" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B42" s="87"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
       <c r="E42" s="27" t="s">
         <v>3</v>
       </c>
@@ -5747,20 +5787,20 @@
       <c r="J42" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K42" s="84"/>
+      <c r="K42" s="83"/>
     </row>
     <row r="43" spans="2:11" ht="24">
-      <c r="B43" s="86">
+      <c r="B43" s="91">
         <v>7</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="D43" s="77"/>
-      <c r="E43" s="80" t="s">
+      <c r="D43" s="102"/>
+      <c r="E43" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="111" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="23" t="s">
@@ -5775,16 +5815,16 @@
       <c r="J43" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="K43" s="83" t="s">
-        <v>209</v>
+      <c r="K43" s="80" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="36">
-      <c r="B44" s="89"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="76"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="112"/>
       <c r="G44" s="21" t="s">
         <v>16</v>
       </c>
@@ -5800,9 +5840,9 @@
       <c r="K44" s="82"/>
     </row>
     <row r="45" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B45" s="87"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="27" t="s">
         <v>3</v>
       </c>
@@ -5819,20 +5859,20 @@
       <c r="J45" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K45" s="84"/>
+      <c r="K45" s="83"/>
     </row>
     <row r="46" spans="2:11" ht="24">
-      <c r="B46" s="86">
+      <c r="B46" s="91">
         <v>8</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="80" t="s">
+      <c r="D46" s="102"/>
+      <c r="E46" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="111" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="23" t="s">
@@ -5847,16 +5887,16 @@
       <c r="J46" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="83" t="s">
+      <c r="K46" s="80" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="36">
-      <c r="B47" s="89"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="76"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="112"/>
       <c r="G47" s="21" t="s">
         <v>0</v>
       </c>
@@ -5872,9 +5912,9 @@
       <c r="K47" s="82"/>
     </row>
     <row r="48" spans="2:11" ht="36">
-      <c r="B48" s="89"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
       <c r="E48" s="20" t="s">
         <v>9</v>
       </c>
@@ -5894,9 +5934,9 @@
       <c r="K48" s="82"/>
     </row>
     <row r="49" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B49" s="90"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="34" t="s">
         <v>3</v>
       </c>
@@ -5913,20 +5953,20 @@
       <c r="J49" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="K49" s="85"/>
+      <c r="K49" s="95"/>
     </row>
     <row r="50" spans="2:11" ht="36">
-      <c r="B50" s="86">
+      <c r="B50" s="91">
         <v>9</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="80" t="s">
+      <c r="D50" s="102"/>
+      <c r="E50" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="111" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="23" t="s">
@@ -5941,16 +5981,16 @@
       <c r="J50" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K50" s="83" t="s">
-        <v>210</v>
+      <c r="K50" s="80" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="36">
-      <c r="B51" s="89"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="76"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="112"/>
       <c r="G51" s="21" t="s">
         <v>0</v>
       </c>
@@ -5966,9 +6006,9 @@
       <c r="K51" s="82"/>
     </row>
     <row r="52" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B52" s="87"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
       <c r="E52" s="27" t="s">
         <v>3</v>
       </c>
@@ -5985,20 +6025,20 @@
       <c r="J52" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K52" s="84"/>
+      <c r="K52" s="83"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="86">
+      <c r="B53" s="91">
         <v>10</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="77"/>
-      <c r="E53" s="80" t="s">
+      <c r="D53" s="102"/>
+      <c r="E53" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="75" t="s">
+      <c r="F53" s="111" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="23" t="s">
@@ -6013,16 +6053,16 @@
       <c r="J53" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="K53" s="83" t="s">
-        <v>211</v>
+      <c r="K53" s="80" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B54" s="89"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="76"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="112"/>
       <c r="G54" s="21" t="s">
         <v>0</v>
       </c>
@@ -6038,9 +6078,9 @@
       <c r="K54" s="82"/>
     </row>
     <row r="55" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B55" s="87"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
       <c r="E55" s="37" t="s">
         <v>9</v>
       </c>
@@ -6057,16 +6097,16 @@
       <c r="J55" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="84"/>
+      <c r="K55" s="83"/>
     </row>
     <row r="56" spans="2:11" ht="36">
-      <c r="B56" s="86">
+      <c r="B56" s="91">
         <v>11</v>
       </c>
-      <c r="C56" s="77" t="s">
+      <c r="C56" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="77"/>
+      <c r="D56" s="102"/>
       <c r="E56" s="31" t="s">
         <v>9</v>
       </c>
@@ -6084,13 +6124,13 @@
         <v>140</v>
       </c>
       <c r="K56" s="66" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="36.75" thickBot="1">
-      <c r="B57" s="87"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
       <c r="E57" s="37" t="s">
         <v>9</v>
       </c>
@@ -6108,16 +6148,16 @@
         <v>127</v>
       </c>
       <c r="K57" s="67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="F58" s="74" t="s">
+      <c r="F58" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="4"/>
@@ -6130,16 +6170,46 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="C39:D42"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="C46:D49"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:D55"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:D52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="C22:D28"/>
+    <mergeCell ref="B22:B28"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="B16:B21"/>
@@ -6156,46 +6226,16 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="C22:D28"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C43:D45"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="C46:D49"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:D55"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:D52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="C39:D42"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.6692913385826772" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.19685039370078741"/>
@@ -6227,7 +6267,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6311,7 +6351,7 @@
         <v>163</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:3">
